--- a/biology/Botanique/Spongospora/Spongospora.xlsx
+++ b/biology/Botanique/Spongospora/Spongospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spongospora est un genre de la division des Rhizaria, de l'embranchement des Cercozoa, appartenant à la famille des Plasmodiophoridae.
 Ce genre, précédemment classé parmi les champignons, comprend des organismes phytopathogènes, dont la sous-espèce Spongospora subterranea f. sp. subterranea, agent de la gale poudreuse de la pomme de terre.
-Tous les membres du genre Spongospora sont des parasites obligatoires et ne peuvent être cultivés en dehors des plantes hôtes[1].
+Tous les membres du genre Spongospora sont des parasites obligatoires et ne peuvent être cultivés en dehors des plantes hôtes.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 sept. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 sept. 2011) :
 Spongospora subterranea
 Spongospora subterranea f. sp. nasturtii
 Spongospora subterranea f. sp. subterranea
-Selon ITIS      (18 sept. 2011)[3] :
+Selon ITIS      (18 sept. 2011) :
 Spongospora subterranea (Wallr.) Lagerh.</t>
         </is>
       </c>
